--- a/hogwartsleg.xlsx
+++ b/hogwartsleg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc0a8f9fa1e7882a/Documents/Hogwarts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC20C17-C135-4C04-AE74-496E83592E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{BDC20C17-C135-4C04-AE74-496E83592E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C86D3D7-FED9-40D7-8254-560F1BB12495}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7785" xr2:uid="{031E36B8-E7F5-429F-8DB9-584EC3B8DE65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{031E36B8-E7F5-429F-8DB9-584EC3B8DE65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -68,9 +68,6 @@
     <t>hogwarts_student</t>
   </si>
   <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
     <t>hogwarts_staff</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Nellie Oggspire</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Poppy Sweeting</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>green</t>
   </si>
 </sst>
 </file>
@@ -272,19 +272,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -603,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BE2B6E-299F-445C-945C-F4E67296FDD1}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,8 +616,8 @@
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -637,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -649,19 +646,19 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -669,1000 +666,1267 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>1874</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>1874</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>1875</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>1874</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>1872</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>1872</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>1874</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>1874</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>1878</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>1847</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="D15" t="s">
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>1858</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>1847</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="D18" t="s">
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
-        <v>17</v>
+      <c r="D25" t="s">
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27">
+        <v>1401</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
       <c r="K27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
       </c>
       <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>19</v>
+      <c r="J29" t="s">
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" t="s">
-        <v>17</v>
+      <c r="D32" t="s">
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <v>1868</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
